--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,33 +40,33 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -85,85 +85,91 @@
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
+    <t>well</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>care</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
@@ -527,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,7 +541,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
         <v>33</v>
@@ -596,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8611111111111112</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -638,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.7876712328767124</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -696,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8082191780821918</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C5">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,16 +773,16 @@
         <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>0.8611111111111112</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +802,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7567567567567568</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8302872062663186</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>318</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>318</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,37 +852,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5882352941176471</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C8">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>21</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="K8">
-        <v>0.8433420365535248</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L8">
-        <v>323</v>
+        <v>115</v>
       </c>
       <c r="M8">
-        <v>323</v>
+        <v>115</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +902,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.559322033898305</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.8170731707317073</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +952,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5406976744186046</v>
+        <v>0.5426356589147286</v>
       </c>
       <c r="C10">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D10">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.8125</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -988,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -996,13 +1002,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5343915343915344</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C11">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1014,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.7887323943661971</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1046,13 +1052,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4899328859060403</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="C12">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1064,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.7758620689655172</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1088,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1096,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4133333333333333</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1114,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.7735849056603774</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L13">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1138,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1167,16 +1173,16 @@
         <v>63</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.7659574468085106</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1188,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1196,13 +1202,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2936507936507937</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C15">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D15">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1214,31 +1220,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15">
+        <v>0.775</v>
+      </c>
+      <c r="L15">
+        <v>124</v>
+      </c>
+      <c r="M15">
+        <v>124</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>36</v>
-      </c>
-      <c r="K15">
-        <v>0.7625</v>
-      </c>
-      <c r="L15">
-        <v>122</v>
-      </c>
-      <c r="M15">
-        <v>122</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1246,13 +1252,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1662198391420912</v>
+        <v>0.1635388739946381</v>
       </c>
       <c r="C16">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1264,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1288,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1296,63 +1302,87 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01160915833602064</v>
+        <v>0.01482436351917499</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D17">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E17">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="F17">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>3065</v>
+        <v>3057</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L17">
+        <v>45</v>
+      </c>
+      <c r="M17">
+        <v>45</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.01169317118802619</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
         <v>30</v>
       </c>
-      <c r="M17">
-        <v>30</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="E18">
+        <v>0.17</v>
+      </c>
+      <c r="F18">
+        <v>0.83</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2113</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18">
-        <v>0.746031746031746</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1364,21 +1394,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="J19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K19">
-        <v>0.7441860465116279</v>
+        <v>0.7</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1390,21 +1420,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>0.6875</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1416,21 +1446,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>0.65</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L21">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M21">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1442,21 +1472,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>0.6150627615062761</v>
+        <v>0.6033898305084746</v>
       </c>
       <c r="L22">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="M22">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1468,21 +1498,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>92</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>0.6101694915254238</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1494,21 +1524,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>115</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1520,21 +1550,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>0.574468085106383</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1546,21 +1576,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>0.5692307692307692</v>
+        <v>0.58</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1572,21 +1602,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>0.5571428571428572</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1598,12 +1628,12 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28">
         <v>0.5393258426966292</v>
@@ -1629,10 +1659,10 @@
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>0.3461538461538461</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L29">
         <v>27</v>
@@ -1650,33 +1680,59 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>0.008788449466415568</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N30">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>3158</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31">
+        <v>0.01066499372647428</v>
+      </c>
+      <c r="L31">
+        <v>34</v>
+      </c>
+      <c r="M31">
+        <v>47</v>
+      </c>
+      <c r="N31">
+        <v>0.72</v>
+      </c>
+      <c r="O31">
+        <v>0.28</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>3154</v>
       </c>
     </row>
   </sheetData>
